--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhchew/Documents/School resources/Y3S1/FIT3179/Assignments/Assignment 2/FIT3179Assignment2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BEFA0D-6FA9-1341-8A4A-A86A3F0FB52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84E66D0-C6AA-D942-9586-E0F6F234FCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="43240" windowHeight="27420" firstSheet="3" activeTab="12" xr2:uid="{9429255B-CD62-DA4E-9E2F-59C22C5795C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="43240" windowHeight="27420" activeTab="2" xr2:uid="{9429255B-CD62-DA4E-9E2F-59C22C5795C3}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="13" r:id="rId1"/>
@@ -31,6 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'International Arrival Count Agg'!$A$2:$A$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'International Arrival country'!$B$1:$B$323</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Number of employees &amp; wages'!$B$1:$B$261</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1045,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5F2670-C917-3249-AC3C-35019143F7A6}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1235,7 +1236,7 @@
         <v>299797.48300000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42736</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>66551.682000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42736</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>747359.81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42736</v>
       </c>
@@ -1267,8 +1268,12 @@
       <c r="C19">
         <v>19280.11</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <f>SUM(C6,C12,C18,C24,C30,C36,C42,C48)</f>
+        <v>6361243.0199999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43101</v>
       </c>
@@ -1278,8 +1283,16 @@
       <c r="C20">
         <v>108756.52800000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <f>SUM(C2:C49)</f>
+        <v>11518192.570999999</v>
+      </c>
+      <c r="K20">
+        <f>I19/I20</f>
+        <v>0.55227788394648469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43101</v>
       </c>
@@ -1290,7 +1303,7 @@
         <v>134833.23800000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43101</v>
       </c>
@@ -1301,7 +1314,7 @@
         <v>311675.69500000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43101</v>
       </c>
@@ -1312,7 +1325,7 @@
         <v>70047.61</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43101</v>
       </c>
@@ -1323,7 +1336,7 @@
         <v>804993.44499999995</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43101</v>
       </c>
@@ -1334,7 +1347,7 @@
         <v>17453.117999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43466</v>
       </c>
@@ -1345,7 +1358,7 @@
         <v>109542.091</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43466</v>
       </c>
@@ -1356,7 +1369,7 @@
         <v>131083.84400000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43466</v>
       </c>
@@ -1367,7 +1380,7 @@
         <v>323861.64600000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43466</v>
       </c>
@@ -1378,7 +1391,7 @@
         <v>71067.289999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43466</v>
       </c>
@@ -1389,7 +1402,7 @@
         <v>860130.13399999996</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43466</v>
       </c>
@@ -1400,7 +1413,7 @@
         <v>17052.749</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43831</v>
       </c>
@@ -6501,10 +6514,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5672D506-2B4A-3A44-9687-9276353AF9F5}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6516,7 +6529,7 @@
     <col min="6" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
@@ -6527,7 +6540,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42005</v>
       </c>
@@ -6538,7 +6551,7 @@
         <v>17656.400000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42005</v>
       </c>
@@ -6549,7 +6562,7 @@
         <v>10106.200000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42005</v>
       </c>
@@ -6560,7 +6573,7 @@
         <v>13362.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42005</v>
       </c>
@@ -6571,7 +6584,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42005</v>
       </c>
@@ -6582,7 +6595,7 @@
         <v>2200.1999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42005</v>
       </c>
@@ -6593,7 +6606,7 @@
         <v>646.29999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42005</v>
       </c>
@@ -6603,8 +6616,12 @@
       <c r="C8" s="15">
         <v>23827.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="L8" s="16">
+        <f>SUM(C8,C16,C24,C32,C40,C48,C56,C64)</f>
+        <v>153240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42005</v>
       </c>
@@ -6614,8 +6631,16 @@
       <c r="C9" s="15">
         <v>2673.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="L9" s="16">
+        <f>SUM(C2:C65)</f>
+        <v>466693.2</v>
+      </c>
+      <c r="N9" s="16">
+        <f>L8/L9</f>
+        <v>0.32835275937168146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42370</v>
       </c>
@@ -6626,7 +6651,7 @@
         <v>20142.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42370</v>
       </c>
@@ -6637,7 +6662,7 @@
         <v>10602.9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42370</v>
       </c>
@@ -6648,7 +6673,7 @@
         <v>14476.1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42370</v>
       </c>
@@ -6659,7 +6684,7 @@
         <v>4612.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42370</v>
       </c>
@@ -6670,7 +6695,7 @@
         <v>2424.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42370</v>
       </c>
@@ -6681,7 +6706,7 @@
         <v>657.7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42370</v>
       </c>
@@ -7240,7 +7265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FCD465-B06D-0047-94D5-1427DA87A597}">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
@@ -7906,8 +7931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0528009-70F9-B148-BF1E-E2D64F702834}">
   <dimension ref="A1:C323"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14483,10 +14508,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEB3745-5086-184F-B023-2D35B8FC00AE}">
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:N261"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14496,7 +14521,9 @@
     <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="7" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -14724,7 +14751,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>40179</v>
       </c>
@@ -14738,7 +14765,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>40179</v>
       </c>
@@ -14752,7 +14779,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>40179</v>
       </c>
@@ -14766,7 +14793,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>40179</v>
       </c>
@@ -14780,7 +14807,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>40179</v>
       </c>
@@ -14794,7 +14821,7 @@
         <v>1723.6842105263158</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>40544</v>
       </c>
@@ -14808,7 +14835,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>40544</v>
       </c>
@@ -14822,7 +14849,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>40544</v>
       </c>
@@ -14836,7 +14863,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>40544</v>
       </c>
@@ -14850,7 +14877,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>40544</v>
       </c>
@@ -14864,7 +14891,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>40544</v>
       </c>
@@ -14878,7 +14905,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>40544</v>
       </c>
@@ -14892,7 +14919,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>40544</v>
       </c>
@@ -14906,7 +14933,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>40544</v>
       </c>
@@ -14919,8 +14946,12 @@
       <c r="D30">
         <v>900</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <f>AVERAGE(D10:D250)</f>
+        <v>2286.0085171434812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>40544</v>
       </c>
@@ -14934,7 +14965,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>40544</v>
       </c>
@@ -15396,7 +15427,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>41275</v>
       </c>
@@ -15410,7 +15441,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>41275</v>
       </c>
@@ -15424,7 +15455,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>41275</v>
       </c>
@@ -15438,7 +15469,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>41275</v>
       </c>
@@ -15452,7 +15483,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>41275</v>
       </c>
@@ -15465,8 +15496,12 @@
       <c r="D69">
         <v>1800</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I69" s="10">
+        <f>AVERAGE(D17,D37,D57,D77,D97,D117,D137,D157,D177,D197,D217,D237,D257)</f>
+        <v>4127.1538461538457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>41275</v>
       </c>
@@ -15480,7 +15515,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>41275</v>
       </c>
@@ -15494,7 +15529,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>41275</v>
       </c>
@@ -15508,7 +15543,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>41275</v>
       </c>
@@ -15522,7 +15557,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>41275</v>
       </c>
@@ -15536,7 +15571,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>41275</v>
       </c>
@@ -15550,7 +15585,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>41275</v>
       </c>
@@ -15564,7 +15599,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>41275</v>
       </c>
@@ -15578,7 +15613,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>41275</v>
       </c>
@@ -15592,7 +15627,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>41275</v>
       </c>
@@ -15606,7 +15641,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>41275</v>
       </c>
@@ -18152,6 +18187,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B261" xr:uid="{BCEB3745-5086-184F-B023-2D35B8FC00AE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21407,10 +21443,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5609517C-DD8C-DB48-8B7F-7201DD201B4D}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21632,6 +21668,16 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f>AVERAGE(B2:B17)</f>
+        <v>23386879.25</v>
+      </c>
+      <c r="C30">
+        <f>AVERAGE(C2:C17)</f>
+        <v>60209.049999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
